--- a/frontend/static/examples/公司上傳範本.xlsx
+++ b/frontend/static/examples/公司上傳範本.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHIAYI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9F4489-2501-474F-A163-7D286D4AFFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450A720-FD02-4232-B924-C2C398A1576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="公司名稱" sheetId="1" r:id="rId1"/>
+    <sheet name="公司資料" sheetId="1" r:id="rId1"/>
+    <sheet name="實習職缺" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -25,130 +26,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>公司名稱</t>
   </si>
   <si>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>聯絡人姓名</t>
+  </si>
+  <si>
+    <t>聯絡人職稱</t>
+  </si>
+  <si>
+    <t>聯絡信箱</t>
+  </si>
+  <si>
+    <t>聯絡電話</t>
+  </si>
+  <si>
+    <t>上傳時間</t>
+  </si>
+  <si>
+    <t>審核時間</t>
+  </si>
+  <si>
+    <t>目前狀態</t>
+  </si>
+  <si>
+    <t>工作內容</t>
+  </si>
+  <si>
+    <t>實習期間</t>
+  </si>
+  <si>
+    <t>需求人數</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>神腦資訊股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市內湖區瑞光路 XXX 號</t>
+  </si>
+  <si>
+    <t>王小明</t>
+  </si>
+  <si>
+    <t>老師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-1234-5678</t>
+  </si>
+  <si>
+    <t>hr@sample.com</t>
+  </si>
+  <si>
+    <t>軟體工程實習生</t>
+  </si>
+  <si>
+    <t>協助後端系統維護與測試，參與專案開發。</t>
+  </si>
+  <si>
+    <t>台北市內湖區</t>
+  </si>
+  <si>
+    <t>2025/07/01–2025/08/31</t>
+  </si>
+  <si>
+    <t>每週一至五 09:00–17:00</t>
+  </si>
+  <si>
+    <t>提供午餐補助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女媧資訊股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>專精於軟體開發與雲端服務，合作多所大學推動實習計畫。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>公司簡介</t>
-  </si>
-  <si>
-    <t>公司地址</t>
-  </si>
-  <si>
-    <t>聯絡人姓名</t>
-  </si>
-  <si>
-    <t>聯絡人職稱</t>
-  </si>
-  <si>
-    <t>聯絡電話</t>
-  </si>
-  <si>
-    <t>聯絡信箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助後端系統維護與測試，參與專案開發。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實習地點</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市信義區瑞光路 XXX 號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/07/01–2025/08/31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每週一至五 09:00–17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>實習職位</t>
-  </si>
-  <si>
-    <t>實習內容</t>
-  </si>
-  <si>
-    <t>實習地點</t>
-  </si>
-  <si>
-    <t>實習期間</t>
-  </si>
-  <si>
-    <t>實習時段</t>
-  </si>
-  <si>
-    <t>需求人數</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>約 50–100 字的簡介，說明產業與實習方向</t>
-  </si>
-  <si>
-    <t>公司或個人聯絡電話</t>
-  </si>
-  <si>
-    <t>主要聯絡信箱</t>
-  </si>
-  <si>
-    <t>提供學生應徵的職位名稱</t>
-  </si>
-  <si>
-    <t>實習工作說明</t>
-  </si>
-  <si>
-    <t>實際工作地點</t>
-  </si>
-  <si>
-    <t>可用日期區間格式</t>
-  </si>
-  <si>
-    <t>可文字描述</t>
-  </si>
-  <si>
-    <t>可填數字</t>
-  </si>
-  <si>
-    <t>可留空或補充</t>
-  </si>
-  <si>
-    <t>神通資訊股份有限公司</t>
-  </si>
-  <si>
-    <t>專精於軟體開發與雲端服務，合作多所大學推動實習計畫。</t>
-  </si>
-  <si>
-    <t>台北市內湖區瑞光路 XXX 號</t>
-  </si>
-  <si>
-    <t>王小明</t>
-  </si>
-  <si>
-    <t>02-1234-5678</t>
-  </si>
-  <si>
-    <t>hr@sample.com</t>
-  </si>
-  <si>
-    <t>軟體工程實習生</t>
-  </si>
-  <si>
-    <t>協助後端系統維護與測試，參與專案開發。</t>
-  </si>
-  <si>
-    <t>台北市內湖區</t>
-  </si>
-  <si>
-    <t>2025/07/01–2025/08/31</t>
-  </si>
-  <si>
-    <t>每週一至五 09:00–17:00</t>
-  </si>
-  <si>
-    <t>全名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司實際地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指導老師</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老師</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供午餐補助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -167,9 +165,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -187,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,25 +194,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -234,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -276,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +313,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +365,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,161 +559,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20" customWidth="1"/>
+    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="5">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
         <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/frontend/static/examples/公司上傳範本.xlsx
+++ b/frontend/static/examples/公司上傳範本.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHIAYI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450A720-FD02-4232-B924-C2C398A1576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9F4489-2501-474F-A163-7D286D4AFFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="公司資料" sheetId="1" r:id="rId1"/>
-    <sheet name="實習職缺" sheetId="2" r:id="rId2"/>
+    <sheet name="公司名稱" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -26,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>公司名稱</t>
   </si>
   <si>
+    <t>公司簡介</t>
+  </si>
+  <si>
     <t>公司地址</t>
   </si>
   <si>
@@ -40,113 +42,113 @@
     <t>聯絡人職稱</t>
   </si>
   <si>
+    <t>聯絡電話</t>
+  </si>
+  <si>
     <t>聯絡信箱</t>
   </si>
   <si>
-    <t>聯絡電話</t>
-  </si>
-  <si>
-    <t>上傳時間</t>
-  </si>
-  <si>
-    <t>審核時間</t>
-  </si>
-  <si>
-    <t>目前狀態</t>
-  </si>
-  <si>
-    <t>工作內容</t>
+    <t>實習職位</t>
+  </si>
+  <si>
+    <t>實習內容</t>
+  </si>
+  <si>
+    <t>實習地點</t>
   </si>
   <si>
     <t>實習期間</t>
   </si>
   <si>
+    <t>實習時段</t>
+  </si>
+  <si>
     <t>需求人數</t>
   </si>
   <si>
     <t>備註</t>
   </si>
   <si>
-    <t>神腦資訊股份有限公司</t>
+    <t>約 50–100 字的簡介，說明產業與實習方向</t>
+  </si>
+  <si>
+    <t>公司或個人聯絡電話</t>
+  </si>
+  <si>
+    <t>主要聯絡信箱</t>
+  </si>
+  <si>
+    <t>提供學生應徵的職位名稱</t>
+  </si>
+  <si>
+    <t>實習工作說明</t>
+  </si>
+  <si>
+    <t>實際工作地點</t>
+  </si>
+  <si>
+    <t>可用日期區間格式</t>
+  </si>
+  <si>
+    <t>可文字描述</t>
+  </si>
+  <si>
+    <t>可填數字</t>
+  </si>
+  <si>
+    <t>可留空或補充</t>
+  </si>
+  <si>
+    <t>神通資訊股份有限公司</t>
+  </si>
+  <si>
+    <t>專精於軟體開發與雲端服務，合作多所大學推動實習計畫。</t>
+  </si>
+  <si>
+    <t>台北市內湖區瑞光路 XXX 號</t>
+  </si>
+  <si>
+    <t>王小明</t>
+  </si>
+  <si>
+    <t>02-1234-5678</t>
+  </si>
+  <si>
+    <t>hr@sample.com</t>
+  </si>
+  <si>
+    <t>軟體工程實習生</t>
+  </si>
+  <si>
+    <t>協助後端系統維護與測試，參與專案開發。</t>
+  </si>
+  <si>
+    <t>台北市內湖區</t>
+  </si>
+  <si>
+    <t>2025/07/01–2025/08/31</t>
+  </si>
+  <si>
+    <t>每週一至五 09:00–17:00</t>
+  </si>
+  <si>
+    <t>全名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>台北市內湖區瑞光路 XXX 號</t>
-  </si>
-  <si>
-    <t>王小明</t>
+    <t>公司實際地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指導老師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>老師</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>02-1234-5678</t>
-  </si>
-  <si>
-    <t>hr@sample.com</t>
-  </si>
-  <si>
-    <t>軟體工程實習生</t>
-  </si>
-  <si>
-    <t>協助後端系統維護與測試，參與專案開發。</t>
-  </si>
-  <si>
-    <t>台北市內湖區</t>
-  </si>
-  <si>
-    <t>2025/07/01–2025/08/31</t>
-  </si>
-  <si>
-    <t>每週一至五 09:00–17:00</t>
-  </si>
-  <si>
     <t>提供午餐補助</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女媧資訊股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>專精於軟體開發與雲端服務，合作多所大學推動實習計畫。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司簡介</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>協助後端系統維護與測試，參與專案開發。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實習地點</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市信義區瑞光路 XXX 號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025/07/01–2025/08/31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每週一至五 09:00–17:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實習職位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上班時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,10 +167,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -186,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -194,31 +195,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -239,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,27 +308,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,24 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,245 +518,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/frontend/static/examples/公司上傳範本.xlsx
+++ b/frontend/static/examples/公司上傳範本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA96CB-8546-4F1A-A5F3-171F0D8DDA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5453E1-8700-47BD-9DB8-B8FF198279D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範例-公司資料" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>公司名稱</t>
   </si>
@@ -438,7 +438,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.4"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -563,69 +563,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7D5AFA-978E-42EF-B771-A680E1CC1597}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="40.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="98.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="35.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="40.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="25.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:27" ht="25.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -643,6 +648,7 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -656,135 +662,140 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="47" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:8" ht="22.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
